--- a/measurements/graphs.xlsx
+++ b/measurements/graphs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lexa\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lexa\Documents\Kateter\measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9F615B9-48D3-4BEC-A06B-D6938170F724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AA9D46-44BC-4430-87CD-E015C85A5DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{0683F9AD-E517-4118-8E13-7BE8F44233E7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0683F9AD-E517-4118-8E13-7BE8F44233E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Rotation_test_1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="Bend_test_2" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -19390,7 +19389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EBF1FC-7265-484B-977E-31C10CB952BE}">
   <dimension ref="A1:C276"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -26196,7 +26195,7 @@
   <dimension ref="A1:C263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:C263"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29104,7 +29103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D6C9A4-A30F-4DDB-A14E-B27D67B15524}">
   <dimension ref="A1:C262"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A1:C262"/>
     </sheetView>
   </sheetViews>
